--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ifne-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ifne-Ifnar1.xlsx
@@ -534,16 +534,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.075783</v>
+        <v>0.1526236666666667</v>
       </c>
       <c r="H2">
-        <v>0.227349</v>
+        <v>0.457871</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.670688</v>
+        <v>27.30988266666667</v>
       </c>
       <c r="N2">
-        <v>71.01206400000001</v>
+        <v>81.929648</v>
       </c>
       <c r="O2">
-        <v>0.1703714224417728</v>
+        <v>0.2168690090390243</v>
       </c>
       <c r="P2">
-        <v>0.1703714224417728</v>
+        <v>0.2168690090390242</v>
       </c>
       <c r="Q2">
-        <v>1.793835748704</v>
+        <v>4.168134428823111</v>
       </c>
       <c r="R2">
-        <v>16.144521738336</v>
+        <v>37.513209859408</v>
       </c>
       <c r="S2">
-        <v>0.1703714224417728</v>
+        <v>0.2168690090390243</v>
       </c>
       <c r="T2">
-        <v>0.1703714224417728</v>
+        <v>0.2168690090390242</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.075783</v>
+        <v>0.1526236666666667</v>
       </c>
       <c r="H3">
-        <v>0.227349</v>
+        <v>0.457871</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,25 +623,25 @@
         <v>20.371636</v>
       </c>
       <c r="N3">
-        <v>61.11490799999999</v>
+        <v>61.114908</v>
       </c>
       <c r="O3">
-        <v>0.1466262663250863</v>
+        <v>0.1617720795708915</v>
       </c>
       <c r="P3">
-        <v>0.1466262663250863</v>
+        <v>0.1617720795708915</v>
       </c>
       <c r="Q3">
-        <v>1.543823690988</v>
+        <v>3.109193782318666</v>
       </c>
       <c r="R3">
-        <v>13.894413218892</v>
+        <v>27.982744040868</v>
       </c>
       <c r="S3">
-        <v>0.1466262663250863</v>
+        <v>0.1617720795708915</v>
       </c>
       <c r="T3">
-        <v>0.1466262663250863</v>
+        <v>0.1617720795708915</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.075783</v>
+        <v>0.1526236666666667</v>
       </c>
       <c r="H4">
-        <v>0.227349</v>
+        <v>0.457871</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.42744333333334</v>
+        <v>42.52135866666666</v>
       </c>
       <c r="N4">
-        <v>139.28233</v>
+        <v>127.564076</v>
       </c>
       <c r="O4">
-        <v>0.3341647509795574</v>
+        <v>0.3376640254953711</v>
       </c>
       <c r="P4">
-        <v>0.3341647509795574</v>
+        <v>0.3376640254953711</v>
       </c>
       <c r="Q4">
-        <v>3.51841093813</v>
+        <v>6.48976567135511</v>
       </c>
       <c r="R4">
-        <v>31.66569844317</v>
+        <v>58.407891042196</v>
       </c>
       <c r="S4">
-        <v>0.3341647509795574</v>
+        <v>0.3376640254953711</v>
       </c>
       <c r="T4">
-        <v>0.3341647509795574</v>
+        <v>0.3376640254953711</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.075783</v>
+        <v>0.1526236666666667</v>
       </c>
       <c r="H5">
-        <v>0.227349</v>
+        <v>0.457871</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.859721333333333</v>
+        <v>6.417394333333333</v>
       </c>
       <c r="N5">
-        <v>17.579164</v>
+        <v>19.252183</v>
       </c>
       <c r="O5">
-        <v>0.04217575165843938</v>
+        <v>0.05096081761571768</v>
       </c>
       <c r="P5">
-        <v>0.04217575165843938</v>
+        <v>0.05096081761571768</v>
       </c>
       <c r="Q5">
-        <v>0.444067261804</v>
+        <v>0.9794462535992221</v>
       </c>
       <c r="R5">
-        <v>3.996605356236</v>
+        <v>8.815016282393</v>
       </c>
       <c r="S5">
-        <v>0.04217575165843938</v>
+        <v>0.05096081761571768</v>
       </c>
       <c r="T5">
-        <v>0.04217575165843938</v>
+        <v>0.05096081761571768</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.075783</v>
+        <v>0.1526236666666667</v>
       </c>
       <c r="H6">
-        <v>0.227349</v>
+        <v>0.457871</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>42.60630033333333</v>
+        <v>29.307738</v>
       </c>
       <c r="N6">
-        <v>127.818901</v>
+        <v>87.923214</v>
       </c>
       <c r="O6">
-        <v>0.3066618085951441</v>
+        <v>0.2327340682789955</v>
       </c>
       <c r="P6">
-        <v>0.3066618085951441</v>
+        <v>0.2327340682789955</v>
       </c>
       <c r="Q6">
-        <v>3.228833258161</v>
+        <v>4.473054435266</v>
       </c>
       <c r="R6">
-        <v>29.059499323449</v>
+        <v>40.257489917394</v>
       </c>
       <c r="S6">
-        <v>0.3066618085951441</v>
+        <v>0.2327340682789955</v>
       </c>
       <c r="T6">
-        <v>0.3066618085951441</v>
+        <v>0.2327340682789955</v>
       </c>
     </row>
   </sheetData>
